--- a/biology/Botanique/Ficus_americana/Ficus_americana.xlsx
+++ b/biology/Botanique/Ficus_americana/Ficus_americana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficus americana est une espèce d'arbres tropicaux de la famille des Moraceae, originaire d'Amérique centrale et du Sud.
 En Français, on le désigne sous les noms de Figuier à petites feuilles [Figyé ti fèy], Aralie petite cerise  [Arali ti siriz] (Martinique),  Figuier canelle (Haiti).
-En Espagnol, on l'appelle Higo prieto (République Dominicaine), Higuillo (République Dominicaine, Honduras), Higuillo prieto, Jagüey, Jagüey colorado, Jagüey prieto (Porto Rico), Jagüeycillo (Cuba),  Matapalo (Venezuela[3], Belize, Guatemala).
-En Anglais, on le nomme Central American banyan, Jamaica fig,  Jamaica cherry fig (Bahamas, Jamaique), Fig, Fine tea fig, Red fidjié, Small fig (Belize), Small leaf fig (Bahamas), West Indian laurel fig, White fig[4].
+En Espagnol, on l'appelle Higo prieto (République Dominicaine), Higuillo (République Dominicaine, Honduras), Higuillo prieto, Jagüey, Jagüey colorado, Jagüey prieto (Porto Rico), Jagüeycillo (Cuba),  Matapalo (Venezuela, Belize, Guatemala).
+En Anglais, on le nomme Central American banyan, Jamaica fig,  Jamaica cherry fig (Bahamas, Jamaique), Fig, Fine tea fig, Red fidjié, Small fig (Belize), Small leaf fig (Bahamas), West Indian laurel fig, White fig.
 </t>
         </is>
       </c>
@@ -514,15 +526,17 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aublet a publié Ficus americana à partir du dessin type et de la description de Plumier (ce dernier rapportait que cet arbre était abondant autour de la Rivière du Lamentin et de la Martinique)[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aublet a publié Ficus americana à partir du dessin type et de la description de Plumier (ce dernier rapportait que cet arbre était abondant autour de la Rivière du Lamentin et de la Martinique),.
 Il s'est néanmoins trompé dans son identification, car cette espèce est absente de Guyane où il rapportait l'avoir rencontrée : 
 « FICUS (Americana) foliis ovato-oblongis, venoſis, integerrimis ; baccis axillaribus, pedunculatis, confertis. Burm. Amer. 124. t. 132. f. 2. 
 Ficus alia foliis lauri, fructu minori. Plum. Cat. 21. 109. t. 7. »
-— Fusée-Aublet, 1775[7].
-D'après le spécialiste Cornelis Christiaan Berg, Ficus americana ferait partie d'un complexe d'espèces avec F. guianensis Desv. ex Ham., F. mathewsii (Miq.) Miq., et F. maitin Pittier[3].
-Ficus americana comprendrait cinq sous-espèces[1] :
+— Fusée-Aublet, 1775.
+D'après le spécialiste Cornelis Christiaan Berg, Ficus americana ferait partie d'un complexe d'espèces avec F. guianensis Desv. ex Ham., F. mathewsii (Miq.) Miq., et F. maitin Pittier.
+Ficus americana comprendrait cinq sous-espèces :
 Ficus americana subsp. americana
 Ficus americana subsp. andicola (Standl.) C.C.Berg
 Ficus americana subsp. greiffiana (Dugand) C.C.Berg
@@ -555,7 +569,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficus americana est un arbre souvent hémiépiphyte (généralement avec des racines aériennes), pouvant atteindre 20 m de haut. 
 Ses rameaux, minutieusement pubérulents à glabres, mesurent 1,5 à 3 mm de diamètre. 
@@ -570,7 +586,7 @@
 Ficus americana est essentiellement un taxon des basses terres mais ses caractéristiques peuvent varier.
 Ainsi, les dimensions du limbe varient selon l'altitude et la région aux Antilles, en Amérique centrale, et à l'Ouest de l'Amérique du Sud.
 On rencontre les dimensions typiques (mentionnées ci-dessus) dans les Antilles, au nord de Saint-Vincent, et à des altitudes élevées dans l'est du Venezuela et au Guyana.
-On trouve une forme à plus grandes feuilles ailleurs en Amérique du Sud (par exemple à Zulia à basse altitude)[8],[3].
+On trouve une forme à plus grandes feuilles ailleurs en Amérique du Sud (par exemple à Zulia à basse altitude),.
 </t>
         </is>
       </c>
@@ -599,9 +615,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ficus americana est présent de l'Amérique Centrale au Brésil en passant par les Antilles, la Colombie, le Venezuela (Bolívar, Amazonas, Apure, Guarico, Zulia), le Guyana et l'Équateur[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ficus americana est présent de l'Amérique Centrale au Brésil en passant par les Antilles, la Colombie, le Venezuela (Bolívar, Amazonas, Apure, Guarico, Zulia), le Guyana et l'Équateur.
 Aublet l'a mentionné par erreur en Guyane possiblement confondu avec Ficus guianensis.
 </t>
         </is>
@@ -631,9 +649,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Ficus americana dans les forêts à basse altitude aux Antilles et de l'Amérique centrale à l'Équateur, et jusqu'à des altitudes de 1 200–2 200 m dans l'est du Venezuela (Bolívar) et au Guyana[8]. Au Venezuela il pousse dans les forêts sempervirentes de plaine ou de montagne, autour de 100–2 200 m d'altitude[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Ficus americana dans les forêts à basse altitude aux Antilles et de l'Amérique centrale à l'Équateur, et jusqu'à des altitudes de 1 200–2 200 m dans l'est du Venezuela (Bolívar) et au Guyana. Au Venezuela il pousse dans les forêts sempervirentes de plaine ou de montagne, autour de 100–2 200 m d'altitude.
 </t>
         </is>
       </c>
